--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/10/seed4/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.968</v>
+        <v>6.228</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.652</v>
+        <v>13.265</v>
       </c>
     </row>
     <row r="5">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.324</v>
+        <v>-20.912</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>13.372</v>
+        <v>12.633</v>
       </c>
     </row>
     <row r="11">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.398</v>
+        <v>-21.825</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.398</v>
+        <v>-21.828</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.193999999999999</v>
+        <v>-7.675999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
